--- a/public/files/user_profiles.xlsx
+++ b/public/files/user_profiles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -175,6 +175,9 @@
     <t xml:space="preserve">additional_degree</t>
   </si>
   <si>
+    <t xml:space="preserve">other_education</t>
+  </si>
+  <si>
     <t xml:space="preserve">occupation</t>
   </si>
   <si>
@@ -332,213 +335,16 @@
   </si>
   <si>
     <t xml:space="preserve">celestial_bodies_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vipul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middlename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vipul@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaaaaaaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dombivli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4'9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegetarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcoholic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-smoker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noting abiut me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hindu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maratha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dffvdvfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ganefce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ttt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rbvgfrbg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tetssss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aklea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thanes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary_school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dvfdrvfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gvrvfrg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devgfdvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdfedfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fvrdghftrh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rupee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">india</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maharashtra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fake address1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fake address 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no landmakr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4'6" (137cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegeterian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfvdfv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gvfrg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rgr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">groom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashwini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drishtiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madhya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noting about patrika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun,Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testMiddlename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testLastname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ganesh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marathi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bride</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -560,12 +366,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -610,24 +410,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -648,10 +436,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CZ3"/>
+  <dimension ref="A1:DA1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CR17" activeCellId="0" sqref="CR17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AT1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY11" activeCellId="0" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -702,45 +490,45 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="17.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="18.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="66" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="68" style="0" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="20.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="18.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="19.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="17.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="19.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="21.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="17.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="28.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="11.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="82" style="0" width="21.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="0" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="94" style="0" width="16.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="17.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="52" style="0" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="67" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="20.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="19.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="17.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="21.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="28.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="83" style="0" width="21.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="0" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="95" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="16.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,348 +844,11 @@
       <c r="CZ1" s="0" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="DA1" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL2" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO2" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS2" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>36760</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>0.996527777777778</v>
-      </c>
-      <c r="AV2" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW2" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX2" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY2" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="AZ2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA2" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="BB2" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC2" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD2" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="BE2" s="0" t="n">
-        <v>4000</v>
-      </c>
-      <c r="BF2" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG2" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="BH2" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI2" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ2" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="BK2" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="BL2" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM2" s="0" t="n">
-        <v>400605</v>
-      </c>
-      <c r="BN2" s="0" t="n">
-        <v>2222333355</v>
-      </c>
-      <c r="BO2" s="0" t="n">
-        <v>5555556666</v>
-      </c>
-      <c r="BP2" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="BQ2" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="BR2" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS2" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="BT2" s="0" t="n">
-        <v>5888</v>
-      </c>
-      <c r="BU2" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="BX2" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY2" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="BZ2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="CA2" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="CB2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CC2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CD2" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="CE2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CF2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="CH2" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="CI2" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="CJ2" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="CK2" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="CL2" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="CM2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="CO2" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="CP2" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="CS2" s="4"/>
-      <c r="CT2" s="4"/>
-      <c r="CU2" s="4"/>
-      <c r="CV2" s="4"/>
-      <c r="CW2" s="4"/>
-      <c r="CX2" s="4"/>
-      <c r="CY2" s="4"/>
-      <c r="CZ2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD3" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="CF3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="vipul@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="ganesh@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/files/user_profiles.xlsx
+++ b/public/files/user_profiles.xlsx
@@ -22,22 +22,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">first_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middle_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,6 +254,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/files/user_profiles.xlsx
+++ b/public/files/user_profiles.xlsx
@@ -142,7 +142,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,6 +254,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/public/files/user_profiles.xlsx
+++ b/public/files/user_profiles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bride/Groom</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile</t>
@@ -139,10 +142,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -150,88 +153,88 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="17.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="17.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="17.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="17.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="16.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="38" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="27.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="22.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="24.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="26.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="13.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="17.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="53" style="0" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="68" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="70" style="0" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="20.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="18.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="19.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="17.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="19.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="21.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="17.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="28.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="11.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="84" style="0" width="21.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="96" style="0" width="16.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="17.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="17.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="39" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="27.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="24.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="26.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="54" style="0" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="71" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="20.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="19.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="17.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="21.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="28.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="85" style="0" width="21.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="0" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="0" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="97" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="106" style="0" width="16.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,9 +256,10 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
